--- a/biology/Zoologie/Cochlostoma_nouleti/Cochlostoma_nouleti.xlsx
+++ b/biology/Zoologie/Cochlostoma_nouleti/Cochlostoma_nouleti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlostoma nouleti est une espèce de mollusques gastéropodes terrestres, de la famille des Diplommatinidae et de la sous-famille des Cochlostomatinae, et du genre Cochlostoma.
 </t>
@@ -511,15 +523,13 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Cochlostoma nouleti été décrite par le malacologue français, Dominique Dupuy en 1851, sous le nom initial de Pomatias nouleti[1]. Elle est dédiée au naturaliste Jean-Baptiste Noulet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Cochlostoma nouleti été décrite par le malacologue français, Dominique Dupuy en 1851, sous le nom initial de Pomatias nouleti. Elle est dédiée au naturaliste Jean-Baptiste Noulet.
 La localité type est Foix.
-L'Holotype est conservé au Muséum de Toulouse.
-Synonymie
-Pomatias nouleti Dupuy, 1851 Protonyme
-Nom vernaculaire
-Cochlostome des Pyrénées.</t>
+L'Holotype est conservé au Muséum de Toulouse.</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,84 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pomatias nouleti Dupuy, 1851 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cochlostoma_nouleti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochlostoma_nouleti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cochlostome des Pyrénées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cochlostoma_nouleti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochlostoma_nouleti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">8-12 x 4-5.3 mm. La coquille est formée de 7 1/2-8 1/2 tours faiblement convexes de forme conique, le dernier tour est légèrement rétréci. Péristome peu épaissi avec un bourrelet interne nettement différencié. Les costulation sont fortes et irrégulières : 3-4 côtes principales par mm et 0-3 côtes plus faibles entre les principales. La couleur générale de la coquille es d'un brun corné clair avec une série de flammules brunes irrégulières sur toute la largeur du tour ; deux bandes brunes interrompues sur le dernier tour.
 </t>
